--- a/sch_sr.xlsx
+++ b/sch_sr.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E595D261-F9F0-4FA8-96DC-991AD535775D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F135E3-9027-492D-882C-7E268C46C9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sch" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="42">
   <si>
     <t>Разг.о важном</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>6Г</t>
+  </si>
+  <si>
+    <t>тест</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -712,7 +715,7 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -909,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -974,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1039,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1104,7 +1107,7 @@
         <v>7</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/sch_sr.xlsx
+++ b/sch_sr.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC01192-93D9-4820-92CD-44579168F0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A43E1C1-535E-4689-9B75-BEEEDBABC6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2085" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="7155" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sch" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="52">
   <si>
     <t>-</t>
   </si>
@@ -86,21 +86,12 @@
     <t>9Б</t>
   </si>
   <si>
-    <t>9В</t>
-  </si>
-  <si>
     <t>10Б</t>
   </si>
   <si>
     <t>11А</t>
   </si>
   <si>
-    <t>7А</t>
-  </si>
-  <si>
-    <t>8А</t>
-  </si>
-  <si>
     <t>8Б</t>
   </si>
   <si>
@@ -164,13 +155,25 @@
     <t>Родн.литер</t>
   </si>
   <si>
-    <t>10А</t>
-  </si>
-  <si>
     <t>Родной яз</t>
   </si>
   <si>
     <t>английский   37</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>8Г</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>10A</t>
   </si>
 </sst>
 </file>
@@ -233,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -294,15 +297,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -373,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -387,28 +381,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -718,7 +706,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10:V10"/>
+      <selection activeCell="B1" sqref="B1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,68 +715,68 @@
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="G1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="P1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -816,16 +804,16 @@
       <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M2" t="s">
@@ -863,67 +851,67 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="9" t="s">
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="9" t="s">
+      <c r="O3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="V3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -931,203 +919,203 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="8" t="s">
+      <c r="I4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="8" t="s">
+      <c r="L4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="8" t="s">
+      <c r="O4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>46</v>
+      <c r="R4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="M5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="O5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>38</v>
+      <c r="V5" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="M6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" s="8" t="s">
+      <c r="R6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1135,135 +1123,135 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="8" t="s">
+      <c r="G7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="R8" s="8" t="s">
+      <c r="L8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V8" s="8" t="s">
+      <c r="T8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1304,35 +1292,35 @@
       <c r="L9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="8" t="s">
+      <c r="M9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1393,13 +1381,13 @@
       <c r="S10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="V10" s="12" t="s">
+      <c r="T10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9" t="s">
         <v>0</v>
       </c>
     </row>

--- a/sch_sr.xlsx
+++ b/sch_sr.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A43E1C1-535E-4689-9B75-BEEEDBABC6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="7155" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="sch" sheetId="1" r:id="rId1"/>
@@ -13,12 +12,12 @@
   <definedNames>
     <definedName name="_5А" localSheetId="0">sch!$B$3:$B$9</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="51">
   <si>
     <t>-</t>
   </si>
@@ -39,9 +38,6 @@
   </si>
   <si>
     <t>история</t>
-  </si>
-  <si>
-    <t>обществознание</t>
   </si>
   <si>
     <t>литература</t>
@@ -179,13 +175,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,36 +371,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -417,9 +424,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,9 +464,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,7 +501,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,7 +536,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -702,81 +709,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:V1"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="N1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="10" t="s">
+      <c r="R1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -805,13 +812,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>0</v>
@@ -852,19 +859,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>2</v>
@@ -876,7 +883,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>2</v>
@@ -885,22 +892,24 @@
         <v>2</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>9</v>
+      <c r="O3" s="7" t="str">
+        <f t="shared" ref="O3:P3" si="0">O2</f>
+        <v>-</v>
+      </c>
+      <c r="P3" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>2</v>
@@ -909,10 +918,11 @@
         <v>0</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="V3" s="5" t="str">
+        <f>$T$3</f>
+        <v>-</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -920,67 +930,67 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="L4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -988,13 +998,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>6</v>
@@ -1006,49 +1016,49 @@
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="K5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="V5" s="6" t="s">
-        <v>35</v>
+      <c r="V5" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1056,61 +1066,61 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U6" s="6" t="s">
         <v>1</v>
@@ -1124,10 +1134,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>1</v>
@@ -1139,19 +1149,19 @@
         <v>6</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>3</v>
@@ -1160,13 +1170,13 @@
         <v>6</v>
       </c>
       <c r="N7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>2</v>
@@ -1181,10 +1191,10 @@
         <v>1</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1195,16 +1205,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>6</v>
@@ -1219,34 +1229,34 @@
         <v>4</v>
       </c>
       <c r="K8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="M8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="P8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U8" s="6" t="s">
         <v>2</v>
@@ -1293,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>3</v>
@@ -1305,22 +1315,22 @@
         <v>2</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1382,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U10" s="9" t="s">
         <v>0</v>
